--- a/01_Investment_Plan_2025_Rebalancing.xlsx
+++ b/01_Investment_Plan_2025_Rebalancing.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhoushang/Desktop/Meine Z/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhoushang/Desktop/Meine Z/Mai 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A98A8B4-D42A-B241-B8AC-0966E194CA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96EECEE6-57C4-B042-9138-1D97563453AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{016DBADC-76D9-AE44-81C6-6D940A00045E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{016DBADC-76D9-AE44-81C6-6D940A00045E}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
     <sheet name="Fixed Investment Plan" sheetId="4" r:id="rId3"/>
-    <sheet name="Kurse" sheetId="2" r:id="rId4"/>
+    <sheet name="Mikroinvestition" sheetId="7" r:id="rId4"/>
+    <sheet name="Summary-Mikro" sheetId="8" r:id="rId5"/>
+    <sheet name="Kurse" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="117">
   <si>
     <t>Transaction Date</t>
   </si>
@@ -191,9 +193,6 @@
     <t>IE00BTJRMP35</t>
   </si>
   <si>
-    <t>19/05/2025 – ETF sold (€39.43 – €0.99 fee = €38.44). Not in final plan. Reinvested in Nasdaq 100 &amp; Defense.</t>
-  </si>
-  <si>
     <t>19/05/2025 – ETF sold (€20.25 – €1.00 fee = €19.25). Not in final plan. Reinvested in ASML.</t>
   </si>
   <si>
@@ -221,9 +220,6 @@
     <t>DE0007030009</t>
   </si>
   <si>
-    <t>Satellite</t>
-  </si>
-  <si>
     <t>Equity</t>
   </si>
   <si>
@@ -233,9 +229,6 @@
     <t>NL0010273215</t>
   </si>
   <si>
-    <t>Long-term investment; Final-plan. €1.00 fee + €3.00 from prior sells.</t>
-  </si>
-  <si>
     <t>Long-term investment; Final-plan. €0.00 fee + €0,99 from prior sell.</t>
   </si>
   <si>
@@ -311,10 +304,94 @@
     <t>ASML Holding N.V.</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Current Value (€)</t>
+  </si>
+  <si>
+    <t>Amundi Nasdaq 100</t>
+  </si>
+  <si>
+    <t>Scalable MSCI AC World</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>VanEck Defense</t>
+  </si>
+  <si>
+    <t>iShares Physical Gold</t>
+  </si>
+  <si>
+    <t>19/05/2025 – ETF sold (€28,56 – €0.99 fee = €38.44). Not in final plan. Reinvested in Nasdaq 100 &amp; Defense.</t>
+  </si>
+  <si>
+    <t>28/05/2025 – ETF sold (€39.43 – €0.99 fee = €29,55). Not in final plan. Reinvested in Defense.</t>
+  </si>
+  <si>
+    <t>Crypto &amp; Blockchain Innovators USD (Acc)</t>
+  </si>
+  <si>
+    <t>IE00BMDKNW35</t>
+  </si>
+  <si>
+    <t>One-Time Purchase</t>
+  </si>
+  <si>
+    <t>Mikroinvestition</t>
+  </si>
+  <si>
+    <t>MSCI Saudi Arabia Capped USD (Acc)</t>
+  </si>
+  <si>
+    <t>IE00BYYR0489</t>
+  </si>
+  <si>
+    <t>Support für Blockchain-Community &amp; dezentrale Netzwerke</t>
+  </si>
+  <si>
+    <t>Mikro</t>
+  </si>
+  <si>
+    <t>Mikro, TER 0,85 %</t>
+  </si>
+  <si>
+    <t>MSCI China USD (Acc)</t>
+  </si>
+  <si>
+    <t>MSCI Core Japan JPY (Acc)</t>
+  </si>
+  <si>
+    <t>Mikro, TER 0,65 %</t>
+  </si>
+  <si>
+    <t>Cyberark</t>
+  </si>
+  <si>
+    <t>Mikro, TER 0,12 %</t>
+  </si>
+  <si>
+    <t>Mikro, TER 0,28 %</t>
+  </si>
+  <si>
+    <t>MSCI India Swap USD (ACC)</t>
+  </si>
+  <si>
+    <t>Mikro, TER 0,19%</t>
+  </si>
+  <si>
+    <t>MSCI Africa Top 50 Swap USD (Acc)</t>
+  </si>
+  <si>
+    <t>Mikro, TER 0,65%</t>
+  </si>
+  <si>
+    <t>29/05/2025 – Sold due to broker change</t>
+  </si>
+  <si>
+    <t>29/05/2025 – Sold due to broker change (€30.86 - €1 = 29.86)</t>
+  </si>
+  <si>
+    <t>29/05/2025 – Sold due to broker change (€25.83 - €1 = 24.83)</t>
   </si>
 </sst>
 </file>
@@ -330,7 +407,7 @@
     <numFmt numFmtId="169" formatCode="0.000000"/>
     <numFmt numFmtId="170" formatCode="\+0.00000000\ &quot;€&quot;;\-0.00000000\ &quot;€&quot;;0.00000000\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -380,12 +457,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
@@ -418,8 +489,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,12 +531,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF595959"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -460,6 +539,18 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0D0D0"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -517,7 +608,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,7 +634,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -613,7 +703,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -628,9 +717,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -650,7 +736,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,65 +745,156 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -729,16 +905,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF003366"/>
-      <color rgb="FFBFCDD8"/>
-      <color rgb="FF4F5A63"/>
-      <color rgb="FF6A7680"/>
-      <color rgb="FFCFCABE"/>
-      <color rgb="FFCFCAC2"/>
-      <color rgb="FFC9CEDC"/>
-      <color rgb="FFC9CED4"/>
-      <color rgb="FFC9CED0"/>
-      <color rgb="FFC9CEE0"/>
+      <color rgb="FFFDECEA"/>
+      <color rgb="FFF0EA96"/>
+      <color rgb="FF797979"/>
+      <color rgb="FF7A7783"/>
+      <color rgb="FF6B7D92"/>
+      <color rgb="FF7E98AD"/>
+      <color rgb="FF5C5863"/>
+      <color rgb="FFD9C89A"/>
+      <color rgb="FFC3CED9"/>
+      <color rgb="FF6D6A75"/>
     </mruColors>
   </colors>
   <extLst>
@@ -759,10 +935,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="3"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -773,28 +949,42 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:ea typeface="+mj-ea"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="1600">
+              <a:rPr lang="de-DE" sz="2400" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="85000"/>
+                    <a:lumOff val="15000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Invested Amount vs. Total Cost per Asset (€)</a:t>
+              <a:t>Asset Allocation (%)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43367189417268981"/>
+          <c:y val="3.0325031119826647E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -808,15 +998,15 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:ea typeface="+mj-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
@@ -827,35 +1017,138 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Invested Amount</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="76000"/>
-                <a:alpha val="85000"/>
-              </a:schemeClr>
+              <a:srgbClr val="C3CED9"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="C3CED9"/>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9530-8D49-9039-35E6A338C39F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="6B7D92"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-9530-8D49-9039-35E6A338C39F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7E98AD"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-9530-8D49-9039-35E6A338C39F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="D9C89A"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9530-8D49-9039-35E6A338C39F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C3CED9"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-9530-8D49-9039-35E6A338C39F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7A7783"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9530-8D49-9039-35E6A338C39F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -870,358 +1163,96 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Summary!$A$2,Summary!$A$3,Summary!$A$4,Summary!$A$5,Summary!$A$6,Summary!$A$7,Summary!$A$8)</c:f>
+              <c:f>Summary!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Amundi Nasdaq 100 EUR (Acc)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iShares Automation &amp; Robotics (Acc)</c:v>
+                  <c:v>VanEck Defense (Acc)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VanEck Defense (Acc)</c:v>
+                  <c:v>Scalable MSCI AC World Xtrackers (Acc)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Scalable MSCI AC World Xtrackers (Acc)</c:v>
+                  <c:v>iShares Physical Gold ETC</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>iShares Physical Gold ETC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ASML Holding N. V.</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Rheinmetall AG</c:v>
+                  <c:v>Overall Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Summary!$D$2,Summary!$D$3,Summary!$D$4,Summary!$D$5,Summary!$D$6,Summary!$D$7,Summary!$D$8)</c:f>
+              <c:f>Summary!$F$2:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>0.2967207790235929</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>0.18212304331593634</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>0.22567817388797309</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.33</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>0.29547800377249755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F3B1-D648-8416-08DDB773F82A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Total Cost</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="77000"/>
-                <a:alpha val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:alpha val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Summary!$A$2,Summary!$A$3,Summary!$A$4,Summary!$A$5,Summary!$A$6,Summary!$A$7,Summary!$A$8)</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Amundi Nasdaq 100 EUR (Acc)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>iShares Automation &amp; Robotics (Acc)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>VanEck Defense (Acc)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Scalable MSCI AC World Xtrackers (Acc)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>iShares Physical Gold ETC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ASML Holding N. V.</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Rheinmetall AG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Summary!$E$2,Summary!$E$3,Summary!$E$4,Summary!$E$5,Summary!$E$6,Summary!$E$7,Summary!$E$8)</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>50.989999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38.33</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F3B1-D648-8416-08DDB773F82A}"/>
+              <c16:uniqueId val="{00000000-EEB9-8142-A3FD-49C993CAA155}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
-        <c:gapWidth val="65"/>
-        <c:axId val="1071419759"/>
-        <c:axId val="1070952271"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1071419759"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1070952271"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1070952271"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00\ &quot;€&quot;" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1071419759"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -1230,42 +1261,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1278,30 +1273,22 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1"/>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="10000"/>
+          <a:lumOff val="90000"/>
+        </a:schemeClr>
+      </a:bgClr>
+    </a:pattFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1361,7 +1348,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Investment vs. Current Value by Asset (€)</a:t>
+              <a:t>Investment</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> vs. Current Value (€)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1482,11 +1473,11 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Summary!$A$3,Summary!$A$4,Summary!$A$5,Summary!$A$6,Summary!$A$7,Summary!$A$8)</c:f>
+              <c:f>(Summary!$A$2,Summary!$A$3,Summary!$A$4,Summary!$A$5)</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>iShares Automation &amp; Robotics (Acc)</c:v>
+                  <c:v>Amundi Nasdaq 100 EUR (Acc)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>VanEck Defense (Acc)</c:v>
@@ -1497,45 +1488,33 @@
                 <c:pt idx="3">
                   <c:v>iShares Physical Gold ETC</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>ASML Holding N. V.</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Rheinmetall AG</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Summary!$C$3,Summary!$C$4,Summary!$C$5,Summary!$C$6,Summary!$C$7,Summary!$C$8)</c:f>
+              <c:f>(Summary!$C$2,Summary!$C$3,Summary!$C$4,Summary!$C$5)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>28.910538939999999</c:v>
+                  <c:v>50.326379099999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.071919079999997</c:v>
+                  <c:v>30.889624079999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.734306959999998</c:v>
+                  <c:v>38.276946330000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.004798800000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.484596</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.313394000000001</c:v>
+                  <c:v>50.115593799999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A69-FA4B-A547-7EC995512F2B}"/>
+              <c16:uniqueId val="{00000000-EE96-BE40-BE75-AC93B9593CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1619,11 +1598,11 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Summary!$A$3,Summary!$A$4,Summary!$A$5,Summary!$A$6,Summary!$A$7,Summary!$A$8)</c:f>
+              <c:f>(Summary!$A$2,Summary!$A$3,Summary!$A$4,Summary!$A$5)</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>iShares Automation &amp; Robotics (Acc)</c:v>
+                  <c:v>Amundi Nasdaq 100 EUR (Acc)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>VanEck Defense (Acc)</c:v>
@@ -1634,23 +1613,17 @@
                 <c:pt idx="3">
                   <c:v>iShares Physical Gold ETC</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>ASML Holding N. V.</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Rheinmetall AG</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Summary!$E$3,Summary!$E$4,Summary!$E$5,Summary!$E$6,Summary!$E$7,Summary!$E$8)</c:f>
+              <c:f>(Summary!$E$2,Summary!$E$3,Summary!$E$4,Summary!$E$5)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00\ "€"</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
@@ -1661,18 +1634,12 @@
                 <c:pt idx="3">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7A69-FA4B-A547-7EC995512F2B}"/>
+              <c16:uniqueId val="{00000001-EE96-BE40-BE75-AC93B9593CA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1686,11 +1653,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="1152755023"/>
-        <c:axId val="1777170303"/>
+        <c:axId val="547959504"/>
+        <c:axId val="548251936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1152755023"/>
+        <c:axId val="547959504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1733,7 +1700,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1777170303"/>
+        <c:crossAx val="548251936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1741,7 +1708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1777170303"/>
+        <c:axId val="548251936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1744,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1152755023"/>
+        <c:crossAx val="547959504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1892,10 +1859,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1919,23 +1886,19 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Asset Allocation</a:t>
+              <a:rPr lang="de-DE"/>
+              <a:t>Invested</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="de-DE" baseline="0">
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> (%)</a:t>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Amount vs. Total Costt per Asset (€)</a:t>
             </a:r>
-            <a:endParaRPr lang="de-DE">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1972,17 +1935,21 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Invested Amount</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="003366">
-                <a:alpha val="84706"/>
-              </a:srgbClr>
+              <a:schemeClr val="accent1">
+                <a:shade val="76000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
@@ -2051,66 +2018,173 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$2:$A$8</c:f>
+              <c:f>(Summary!$A$2,Summary!$A$3,Summary!$A$4,Summary!$A$5)</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Amundi Nasdaq 100 EUR (Acc)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>iShares Automation &amp; Robotics (Acc)</c:v>
+                  <c:v>VanEck Defense (Acc)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>VanEck Defense (Acc)</c:v>
+                  <c:v>Scalable MSCI AC World Xtrackers (Acc)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Scalable MSCI AC World Xtrackers (Acc)</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>iShares Physical Gold ETC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ASML Holding N. V.</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Rheinmetall AG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$F$2:$F$8</c:f>
+              <c:f>(Summary!$D$2,Summary!$D$3,Summary!$D$4,Summary!$D$5)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.10714438777696825</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4286632666180954E-2</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4286632666180954E-2</c:v>
+                  <c:v>38.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2136887669823855E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.10714438777696825</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.3572193888484124E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.142887755539365E-2</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EEB9-8142-A3FD-49C993CAA155}"/>
+              <c16:uniqueId val="{00000000-3D54-EB4E-B9A2-5659C0091C7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Total Cost</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="77000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Summary!$A$2,Summary!$A$3,Summary!$A$4,Summary!$A$5)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Amundi Nasdaq 100 EUR (Acc)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VanEck Defense (Acc)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scalable MSCI AC World Xtrackers (Acc)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>iShares Physical Gold ETC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Summary!$E$2,Summary!$E$3,Summary!$E$4,Summary!$E$5)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00\ "€"</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D54-EB4E-B9A2-5659C0091C7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2124,16 +2198,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="1054934560"/>
-        <c:axId val="1054936272"/>
+        <c:axId val="609042656"/>
+        <c:axId val="2070526016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1054934560"/>
+        <c:axId val="609042656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2163,15 +2237,15 @@
                     <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1054936272"/>
+        <c:crossAx val="2070526016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2179,12 +2253,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1054936272"/>
+        <c:axId val="2070526016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2211,38 +2285,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00\ &quot;€&quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1054934560"/>
+        <c:crossAx val="609042656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2254,6 +2301,42 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2321,10 +2404,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2335,9 +2418,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mj-ea"/>
@@ -2345,53 +2428,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" baseline="0">
+              <a:rPr lang="de-DE" sz="1800">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Fixed Investment Plan – Rebalancing in June 2025</a:t>
+              <a:t>Portfolio Allocation –</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1800" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" sz="1200" b="0" i="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="85000"/>
-                    <a:lumOff val="15000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Initial investments were made earlier. Full structure begins July. </a:t>
+              <a:t> Fixed Plan Starting June 2025</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE" baseline="0">
+            <a:endParaRPr lang="de-DE" sz="1800">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -2412,9 +2470,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mj-ea"/>
@@ -2438,7 +2496,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="C9CED6"/>
+                <a:srgbClr val="A8B7C5"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2449,7 +2507,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6897-654D-9177-3843A4947B4D}"/>
+                <c16:uniqueId val="{00000004-400A-1347-B503-100D00E163B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2458,7 +2516,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="BFC5CD"/>
+                <a:srgbClr val="7E98AD"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2469,7 +2527,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-6897-654D-9177-3843A4947B4D}"/>
+                <c16:uniqueId val="{00000005-400A-1347-B503-100D00E163B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2478,7 +2536,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="AEB8C2"/>
+                <a:srgbClr val="6D8194"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2489,7 +2547,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-6897-654D-9177-3843A4947B4D}"/>
+                <c16:uniqueId val="{00000006-400A-1347-B503-100D00E163B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2498,7 +2556,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="A1A9B2"/>
+                <a:srgbClr val="D8C9A3"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2509,7 +2567,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-6897-654D-9177-3843A4947B4D}"/>
+                <c16:uniqueId val="{00000001-400A-1347-B503-100D00E163B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2518,7 +2576,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="D1CCC5"/>
+                <a:srgbClr val="5C5863"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2529,7 +2587,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-6897-654D-9177-3843A4947B4D}"/>
+                <c16:uniqueId val="{00000002-400A-1347-B503-100D00E163B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2538,7 +2596,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="6A7680"/>
+                <a:srgbClr val="6D6A75"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -2549,27 +2607,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-6897-654D-9177-3843A4947B4D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4F5A63"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-6897-654D-9177-3843A4947B4D}"/>
+                <c16:uniqueId val="{00000003-400A-1347-B503-100D00E163B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2582,15 +2620,18 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="t" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2600,7 +2641,7 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
@@ -2628,28 +2669,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('Fixed Investment Plan'!$A$3,'Fixed Investment Plan'!$A$4,'Fixed Investment Plan'!$A$5,'Fixed Investment Plan'!$A$6,'Fixed Investment Plan'!$A$7,'Fixed Investment Plan'!$A$8,'Fixed Investment Plan'!$A$9)</c:f>
+              <c:f>('Fixed Investment Plan'!$A$3,'Fixed Investment Plan'!$A$4,'Fixed Investment Plan'!$A$5,'Fixed Investment Plan'!$A$6,'Fixed Investment Plan'!$A$7,'Fixed Investment Plan'!$A$8)</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Amundi Nasdaq 100 EUR (Acc)</c:v>
+                  <c:v>Amundi Nasdaq 100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scalable MSCI AC World Xtrackers (Acc)</c:v>
+                  <c:v>Scalable MSCI AC World</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>iShares Automation &amp; Robotics (Acc)</c:v>
+                  <c:v>VanEck Defense</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>VanEck Defense (Acc)</c:v>
+                  <c:v>iShares Physical Gold</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>iShares Physical Gold ETC</c:v>
+                  <c:v>ASML Holding N.V.</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ASML Holding N.V.</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Rheinmetall AG</c:v>
                 </c:pt>
               </c:strCache>
@@ -2657,42 +2695,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Fixed Investment Plan'!$E$3,'Fixed Investment Plan'!$E$4,'Fixed Investment Plan'!$E$5,'Fixed Investment Plan'!$E$6,'Fixed Investment Plan'!$E$7,'Fixed Investment Plan'!$E$8,'Fixed Investment Plan'!$E$9)</c:f>
+              <c:f>('Fixed Investment Plan'!$E$3,'Fixed Investment Plan'!$E$4,'Fixed Investment Plan'!$E$5,'Fixed Investment Plan'!$E$6,'Fixed Investment Plan'!$E$7,'Fixed Investment Plan'!$E$8)</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.21279999999999999</c:v>
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21279999999999999</c:v>
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17019999999999999</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17019999999999999</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5099999999999995E-2</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5099999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.3799999999999996E-2</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6897-654D-9177-3843A4947B4D}"/>
+              <c16:uniqueId val="{00000000-400A-1347-B503-100D00E163B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2711,38 +2746,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2796,18 +2799,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
-  <a:schemeClr val="accent1"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
-  <a:schemeClr val="accent1"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2847,34 +2838,602 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
   <cs:variation>
-    <a:tint val="88500"/>
+    <a:lumMod val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="55000"/>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="75000"/>
+    <a:lumMod val="80000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="98500"/>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="30000"/>
+    <a:lumMod val="50000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="60000"/>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:tint val="80000"/>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="256">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="10000"/>
+            <a:lumOff val="90000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="50800">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3444,7 +4003,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4014,576 +4573,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="256">
   <cs:axisTitle>
@@ -5131,23 +5120,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>742170</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>33121</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>41191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>617838</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>68649</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Diagramm 8">
+        <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62785DF5-FE8C-DC55-A61B-14ABF22EA575}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91CF2DD-AAB3-1C13-0817-E76E9314CB24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5167,23 +5156,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>77543</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>139504</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>49633</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>195828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>794633</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>71328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9548F473-E69C-C906-BE74-006EDAE7CFF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51A00135-E91B-9750-8D91-18429D5584E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5203,23 +5192,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>46592</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>137403</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>34304</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>209331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>137710</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>91807</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>779304</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>63664</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3">
+        <xdr:cNvPr id="6" name="Diagramm 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91CF2DD-AAB3-1C13-0817-E76E9314CB24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE73FEFD-EE57-4B45-9496-D30A52C5D82D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5245,22 +5234,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>43050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>45904</xdr:rowOff>
+      <xdr:colOff>21605</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>130822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>30602</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>15301</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>148271</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>82022</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C535F1E8-052D-87C8-5B03-6661430DE0F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ACAC66F-B218-F739-166F-30A291F1C669}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5602,103 +5591,105 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="63" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="114.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="87" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="87" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="37"/>
+    <col min="14" max="14" width="22.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" style="98" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="63" style="37" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="114.1640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="25" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5718,10 +5709,10 @@
       <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>1.155268</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="41">
         <f>SUMIFS(F$2:F2, D$2:D2, D2, V$2:V2, "Yes")</f>
         <v>0</v>
       </c>
@@ -5781,384 +5772,382 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>45789</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <v>0.46250000000000002</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>9.3785999999999994E-2</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="29">
         <f>SUMIFS(F$3:F3, D$3:D3, D3, V$3:V3, "Yes")</f>
         <v>9.3785999999999994E-2</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="118">
         <v>213.25</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="118">
         <f>IFERROR(VLOOKUP(D3,Kurse!$A:$E,2,FALSE),0)</f>
-        <v>210.35</v>
-      </c>
-      <c r="J3" s="32">
+        <v>214.35</v>
+      </c>
+      <c r="J3" s="31">
         <v>20</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="31">
         <f>SUMIFS($J$3:J3, $D$3:D3, D3, $V$3:V3, "Yes")</f>
         <v>20</v>
       </c>
-      <c r="L3" s="32">
-        <v>0</v>
-      </c>
-      <c r="M3" s="32">
+      <c r="L3" s="31">
+        <v>0</v>
+      </c>
+      <c r="M3" s="31">
         <f t="shared" ref="M3:M22" si="1">IF(V3="Yes",J3+L3,"")</f>
         <v>20</v>
       </c>
-      <c r="N3" s="32">
+      <c r="N3" s="31">
         <f>SUMIFS($M$3:M3, $D$3:D3, D3, $V$3:V3, "Yes")</f>
         <v>20</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="30">
         <f t="shared" ref="O3:O22" si="2">IF(V3="Yes",F3*I3,"")</f>
-        <v>19.727885099999998</v>
-      </c>
-      <c r="P3" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="34">
+        <v>20.103029099999997</v>
+      </c>
+      <c r="P3" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="35" t="s">
+      <c r="T3" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="36" t="s">
+      <c r="U3" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="V3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="38"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
+      <c r="A4" s="1">
         <v>45789</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="2">
         <v>0.47291666666666665</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="4">
         <v>2.3581189999999999</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="4">
         <f>SUMIFS(F$3:F4, D$3:D4, D4, V$3:V4, "Yes")</f>
-        <v>2.3581189999999999</v>
-      </c>
-      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>12.722</v>
       </c>
       <c r="I4" s="6">
         <f>IFERROR(VLOOKUP(D4,Kurse!$A:$E,2,FALSE),0)</f>
         <v>12.26</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="6">
         <v>30</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="6">
         <f>SUMIFS($J$3:J4, $D$3:D4, D4, $V$3:V4, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N4" s="6">
+        <f>SUMIFS($M$3:M4, $D$3:D4, D4, $V$3:V4, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="32">
-        <v>0</v>
-      </c>
-      <c r="M4" s="32">
+      <c r="W4" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="26">
+        <v>45789</v>
+      </c>
+      <c r="B5" s="27">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="29">
+        <v>3.254149</v>
+      </c>
+      <c r="G5" s="29">
+        <f>SUMIFS(F$3:F5, D$3:D5, D5, V$3:V5, "Yes")</f>
+        <v>3.254149</v>
+      </c>
+      <c r="H5" s="118">
+        <v>9.2189999999999994</v>
+      </c>
+      <c r="I5" s="118">
+        <f>IFERROR(VLOOKUP(D5,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>9.17</v>
+      </c>
+      <c r="J5" s="31">
+        <v>30</v>
+      </c>
+      <c r="K5" s="31">
+        <f>SUMIFS($J$3:J5, $D$3:D5, D5, $V$3:V5, "Yes")</f>
+        <v>30</v>
+      </c>
+      <c r="L5" s="31">
+        <v>0</v>
+      </c>
+      <c r="M5" s="31">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="N4" s="32">
-        <f>SUMIFS($M$3:M4, $D$3:D4, D4, $V$3:V4, "Yes")</f>
+      <c r="N5" s="31">
+        <f>SUMIFS($M$3:M5, $D$3:D5, D5, $V$3:V5, "Yes")</f>
         <v>30</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O5" s="30">
         <f t="shared" si="2"/>
-        <v>28.910538939999999</v>
-      </c>
-      <c r="P4" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="34">
+        <v>29.840546329999999</v>
+      </c>
+      <c r="P5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="29" t="s">
+      <c r="S5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="35" t="s">
+      <c r="T5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="36" t="s">
+      <c r="U5" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="37" t="s">
+      <c r="V5" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="38"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="26">
         <v>45789</v>
       </c>
-      <c r="B5" s="28">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C5" s="29" t="s">
+      <c r="B6" s="27">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="30">
-        <v>3.254149</v>
-      </c>
-      <c r="G5" s="30">
-        <f>SUMIFS(F$3:F5, D$3:D5, D5, V$3:V5, "Yes")</f>
-        <v>3.254149</v>
-      </c>
-      <c r="H5" s="32">
-        <v>9.2189999999999994</v>
-      </c>
-      <c r="I5" s="6">
-        <f>IFERROR(VLOOKUP(D5,Kurse!$A:$E,2,FALSE),0)</f>
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="J5" s="32">
+      <c r="D6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0.88920500000000002</v>
+      </c>
+      <c r="G6" s="29">
+        <f>SUMIFS(F$3:F6, D$3:D6, D6, V$3:V6, "Yes")</f>
+        <v>0.88920500000000002</v>
+      </c>
+      <c r="H6" s="118">
+        <v>56.23</v>
+      </c>
+      <c r="I6" s="118">
+        <f>IFERROR(VLOOKUP(D6,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>56.36</v>
+      </c>
+      <c r="J6" s="31">
+        <v>50</v>
+      </c>
+      <c r="K6" s="31">
+        <f>SUMIFS($J$3:J6, $D$3:D6, D6, $V$3:V6, "Yes")</f>
+        <v>50</v>
+      </c>
+      <c r="L6" s="31">
+        <v>0</v>
+      </c>
+      <c r="M6" s="31">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="N6" s="31">
+        <f>SUMIFS($M$3:M6, $D$3:D6, D6, $V$3:V6, "Yes")</f>
+        <v>50</v>
+      </c>
+      <c r="O6" s="30">
+        <f t="shared" si="2"/>
+        <v>50.115593799999999</v>
+      </c>
+      <c r="P6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="26">
+        <v>45789</v>
+      </c>
+      <c r="B7" s="27">
+        <v>0.49652777777777779</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0.65416399999999997</v>
+      </c>
+      <c r="G7" s="29">
+        <f>SUMIFS(F$3:F7, D$3:D7, D7, V$3:V7, "Yes")</f>
+        <v>0.65416399999999997</v>
+      </c>
+      <c r="H7" s="118">
+        <v>45.86</v>
+      </c>
+      <c r="I7" s="118">
+        <f>IFERROR(VLOOKUP(D7,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>47.22</v>
+      </c>
+      <c r="J7" s="31">
         <v>30</v>
       </c>
-      <c r="K5" s="32">
-        <f>SUMIFS($J$3:J5, $D$3:D5, D5, $V$3:V5, "Yes")</f>
+      <c r="K7" s="31">
+        <f>SUMIFS($J$3:J7, $D$3:D7, D7, $V$3:V7, "Yes")</f>
         <v>30</v>
       </c>
-      <c r="L5" s="32">
-        <v>0</v>
-      </c>
-      <c r="M5" s="32">
+      <c r="L7" s="31">
+        <v>0</v>
+      </c>
+      <c r="M7" s="31">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="N5" s="32">
-        <f>SUMIFS($M$3:M5, $D$3:D5, D5, $V$3:V5, "Yes")</f>
-        <v>30</v>
-      </c>
-      <c r="O5" s="31">
-        <f t="shared" si="2"/>
-        <v>29.417506959999997</v>
-      </c>
-      <c r="P5" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="V5" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5" s="38"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
-        <v>45789</v>
-      </c>
-      <c r="B6" s="28">
-        <v>0.48402777777777778</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="30">
-        <v>0.88920500000000002</v>
-      </c>
-      <c r="G6" s="30">
-        <f>SUMIFS(F$3:F6, D$3:D6, D6, V$3:V6, "Yes")</f>
-        <v>0.88920500000000002</v>
-      </c>
-      <c r="H6" s="32">
-        <v>56.23</v>
-      </c>
-      <c r="I6" s="6">
-        <f>IFERROR(VLOOKUP(D6,Kurse!$A:$E,2,FALSE),0)</f>
-        <v>57.36</v>
-      </c>
-      <c r="J6" s="32">
-        <v>50</v>
-      </c>
-      <c r="K6" s="32">
-        <f>SUMIFS($J$3:J6, $D$3:D6, D6, $V$3:V6, "Yes")</f>
-        <v>50</v>
-      </c>
-      <c r="L6" s="32">
-        <v>0</v>
-      </c>
-      <c r="M6" s="32">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="N6" s="32">
-        <f>SUMIFS($M$3:M6, $D$3:D6, D6, $V$3:V6, "Yes")</f>
-        <v>50</v>
-      </c>
-      <c r="O6" s="31">
-        <f t="shared" si="2"/>
-        <v>51.004798800000003</v>
-      </c>
-      <c r="P6" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="W6" s="38"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
-        <v>45789</v>
-      </c>
-      <c r="B7" s="28">
-        <v>0.49652777777777779</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="30">
-        <v>0.65416399999999997</v>
-      </c>
-      <c r="G7" s="30">
-        <f>SUMIFS(F$3:F7, D$3:D7, D7, V$3:V7, "Yes")</f>
-        <v>0.65416399999999997</v>
-      </c>
-      <c r="H7" s="32">
-        <v>45.86</v>
-      </c>
-      <c r="I7" s="6">
-        <f>IFERROR(VLOOKUP(D7,Kurse!$A:$E,2,FALSE),0)</f>
-        <v>45.97</v>
-      </c>
-      <c r="J7" s="32">
-        <v>30</v>
-      </c>
-      <c r="K7" s="32">
-        <f>SUMIFS($J$3:J7, $D$3:D7, D7, $V$3:V7, "Yes")</f>
-        <v>30</v>
-      </c>
-      <c r="L7" s="32">
-        <v>0</v>
-      </c>
-      <c r="M7" s="32">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="N7" s="32">
+      <c r="N7" s="31">
         <f>SUMIFS($M$3:M7, $D$3:D7, D7, $V$3:V7, "Yes")</f>
         <v>30</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="30">
         <f t="shared" si="2"/>
-        <v>30.071919079999997</v>
-      </c>
-      <c r="P7" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="34">
+        <v>30.889624079999997</v>
+      </c>
+      <c r="P7" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="29" t="s">
+      <c r="R7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="29" t="s">
+      <c r="S7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="35" t="s">
+      <c r="T7" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="36" t="s">
+      <c r="U7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="37" t="s">
+      <c r="V7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="W7" s="38"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -6235,7 +6224,7 @@
         <v>30</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -6313,7 +6302,7 @@
         <v>30</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -6327,10 +6316,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="F10" s="4">
         <v>3.7919000000000001E-2</v>
@@ -6391,7 +6380,7 @@
         <v>30</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -6405,10 +6394,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="4">
         <v>0.266347</v>
@@ -6469,521 +6458,567 @@
         <v>30</v>
       </c>
       <c r="W11" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
-        <v>45793</v>
-      </c>
-      <c r="B12" s="28">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="30" t="s">
+      <c r="E12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="30">
+      <c r="F12" s="4">
         <v>5.8120000000000003E-3</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="4">
         <f>SUMIFS(F$3:F12, D$3:D12, D12, V$3:V12, "Yes")</f>
-        <v>5.8120000000000003E-3</v>
-      </c>
-      <c r="H12" s="32">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
         <v>1720.5</v>
       </c>
       <c r="I12" s="6">
         <f>IFERROR(VLOOKUP(D12,Kurse!$A:$E,2,FALSE),0)</f>
-        <v>1774.5</v>
-      </c>
-      <c r="J12" s="32">
+        <v>1882.5</v>
+      </c>
+      <c r="J12" s="6">
         <v>10</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="6">
         <f>SUMIFS($J$3:J12, $D$3:D12, D12, $V$3:V12, "Yes")</f>
-        <v>10</v>
-      </c>
-      <c r="L12" s="32">
-        <v>0</v>
-      </c>
-      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="N12" s="32">
+        <v/>
+      </c>
+      <c r="N12" s="6">
         <f>SUMIFS($M$3:M12, $D$3:D12, D12, $V$3:V12, "Yes")</f>
-        <v>10</v>
-      </c>
-      <c r="O12" s="31">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>10.313394000000001</v>
-      </c>
-      <c r="P12" s="33">
+        <v/>
+      </c>
+      <c r="P12" s="7">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="Q12" s="34">
+      <c r="Q12" s="8">
         <f t="shared" si="0"/>
-        <v>4.8472951800000004E-2</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="S12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45796</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="T12" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="U12" s="36" t="s">
+      <c r="E13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="V12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="W12" s="38"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="27">
-        <v>45796</v>
-      </c>
-      <c r="B13" s="28">
-        <v>0.46875</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="30">
+      <c r="F13" s="4">
         <v>3.8137999999999998E-2</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="4">
         <v>3.8137999999999998E-2</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="6">
         <v>681.72</v>
       </c>
       <c r="I13" s="6">
         <f>IFERROR(VLOOKUP(D13,Kurse!$A:$E,2,FALSE),0)</f>
-        <v>642</v>
-      </c>
-      <c r="J13" s="32">
+        <v>650</v>
+      </c>
+      <c r="J13" s="6">
         <v>25</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="6">
         <v>25</v>
       </c>
-      <c r="L13" s="32">
-        <v>4</v>
-      </c>
-      <c r="M13" s="32">
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="N13" s="32">
+        <v/>
+      </c>
+      <c r="N13" s="6">
         <f>SUMIFS($M$3:M13, $D$3:D13, D13, $V$3:V13, "Yes")</f>
-        <v>29</v>
-      </c>
-      <c r="O13" s="31">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>24.484596</v>
-      </c>
-      <c r="P13" s="33">
+        <v/>
+      </c>
+      <c r="P13" s="7">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="8">
         <f t="shared" si="0"/>
-        <v>0.2375005812</v>
-      </c>
-      <c r="R13" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="T13" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="U13" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="V13" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="W13" s="38"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>45799</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>0.49583333333333335</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <v>0.14099999999999999</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="29">
         <f>SUMIFS(F$3:F14, D$3:D14, D14, V$3:V14, "Yes")</f>
         <v>0.23478599999999999</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="31">
         <v>213.5</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="118">
         <f>IFERROR(VLOOKUP(D14,Kurse!$A:$E,2,FALSE),0)</f>
-        <v>210.35</v>
-      </c>
-      <c r="J14" s="32">
+        <v>214.35</v>
+      </c>
+      <c r="J14" s="31">
         <v>30</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="31">
         <f>SUMIFS($J$3:J14, $D$3:D14, D14, $V$3:V14, "Yes")</f>
         <v>50</v>
       </c>
-      <c r="L14" s="32">
-        <v>0.99</v>
-      </c>
-      <c r="M14" s="32">
+      <c r="L14" s="31">
+        <v>0</v>
+      </c>
+      <c r="M14" s="31">
         <f t="shared" si="1"/>
-        <v>30.99</v>
-      </c>
-      <c r="N14" s="32">
+        <v>30</v>
+      </c>
+      <c r="N14" s="31">
         <f>SUMIFS($M$3:M14, $D$3:D14, D14, $V$3:V14, "Yes")</f>
-        <v>50.989999999999995</v>
-      </c>
-      <c r="O14" s="31">
+        <v>50</v>
+      </c>
+      <c r="O14" s="30">
         <f t="shared" si="2"/>
-        <v>29.659349999999996</v>
-      </c>
-      <c r="P14" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="34">
+        <v>30.223349999999996</v>
+      </c>
+      <c r="P14" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R14" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S14" s="29" t="s">
+      <c r="R14" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="S14" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="U14" s="36" t="s">
+      <c r="T14" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="V14" s="37" t="s">
+      <c r="V14" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="W14" s="38"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <v>45799</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="38">
         <v>0.46597222222222223</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <v>0.92</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="29">
         <f>SUMIFS(F$3:F15, D$3:D15, D15, V$3:V15, "Yes")</f>
         <v>4.1741489999999999</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="31">
         <v>9.17</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="118">
         <f>IFERROR(VLOOKUP(D15,Kurse!$A:$E,2,FALSE),0)</f>
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="J15" s="32">
+        <v>9.17</v>
+      </c>
+      <c r="J15" s="31">
         <v>8.33</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="31">
         <f>SUMIFS($J$3:J15, $D$3:D15, D15, $V$3:V15, "Yes")</f>
         <v>38.33</v>
       </c>
-      <c r="L15" s="32">
-        <v>0</v>
-      </c>
-      <c r="M15" s="32">
+      <c r="L15" s="31">
+        <v>0</v>
+      </c>
+      <c r="M15" s="31">
         <f t="shared" si="1"/>
         <v>8.33</v>
       </c>
-      <c r="N15" s="32">
+      <c r="N15" s="31">
         <f>SUMIFS($M$3:M15, $D$3:D15, D15, $V$3:V15, "Yes")</f>
         <v>38.33</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="30">
         <f t="shared" si="2"/>
-        <v>8.3167999999999989</v>
-      </c>
-      <c r="P15" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="34">
+        <v>8.4364000000000008</v>
+      </c>
+      <c r="P15" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R15" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="S15" s="29" t="s">
+      <c r="R15" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="S15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="U15" s="36" t="s">
+      <c r="T15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="U15" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="V15" s="37" t="s">
+      <c r="V15" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="W15" s="38"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="44"/>
-      <c r="G16" s="30">
+      <c r="A16" s="56">
+        <v>45805</v>
+      </c>
+      <c r="B16" s="119">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="120">
+        <v>1.0435E-2</v>
+      </c>
+      <c r="G16" s="4">
         <f>SUMIFS(F$3:F16, D$3:D16, D16, V$3:V16, "Yes")</f>
         <v>0</v>
+      </c>
+      <c r="H16" s="115">
+        <v>1916.5</v>
       </c>
       <c r="I16" s="6">
         <f>IFERROR(VLOOKUP(D16,Kurse!$A:$E,2,FALSE),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="32">
+        <v>1882.5</v>
+      </c>
+      <c r="J16" s="115">
+        <v>20</v>
+      </c>
+      <c r="K16" s="6">
         <f>SUMIFS($J$3:J16, $D$3:D16, D16, $V$3:V16, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="M16" s="32" t="str">
+      <c r="L16" s="115">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N16" s="32">
+      <c r="N16" s="6">
         <f>SUMIFS($M$3:M16, $D$3:D16, D16, $V$3:V16, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="O16" s="31" t="str">
+      <c r="O16" s="5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q16" s="34">
+      <c r="P16" s="121">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="R16" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G17" s="30">
+      <c r="G17" s="29">
         <f>SUMIFS(F$3:F17, D$3:D17, D17, V$3:V17, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="118">
         <f>IFERROR(VLOOKUP(D17,Kurse!$A:$E,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="31">
         <f>SUMIFS($J$3:J17, $D$3:D17, D17, $V$3:V17, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="M17" s="32" t="str">
+      <c r="M17" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N17" s="32">
+      <c r="N17" s="31">
         <f>SUMIFS($M$3:M17, $D$3:D17, D17, $V$3:V17, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="O17" s="31" t="str">
+      <c r="O17" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q17" s="34">
+      <c r="Q17" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G18" s="30">
+      <c r="G18" s="29">
         <f>SUMIFS(F$3:F18, D$3:D18, D18, V$3:V18, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="118">
         <f>IFERROR(VLOOKUP(D18,Kurse!$A:$E,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="31">
         <f>SUMIFS($J$3:J18, $D$3:D18, D18, $V$3:V18, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="M18" s="32" t="str">
+      <c r="M18" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="31">
         <f>SUMIFS($M$3:M18, $D$3:D18, D18, $V$3:V18, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="O18" s="31" t="str">
+      <c r="O18" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <f>SUMIFS(F$3:F19, D$3:D19, D19, V$3:V19, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="118">
         <f>IFERROR(VLOOKUP(D19,Kurse!$A:$E,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="31">
         <f>SUMIFS($J$3:J19, $D$3:D19, D19, $V$3:V19, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="M19" s="32" t="str">
+      <c r="M19" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="31">
         <f>SUMIFS($M$3:M19, $D$3:D19, D19, $V$3:V19, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="O19" s="31" t="str">
+      <c r="O19" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G20" s="30">
+      <c r="G20" s="29">
         <f>SUMIFS(F$3:F20, D$3:D20, D20, V$3:V20, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="118">
         <f>IFERROR(VLOOKUP(D20,Kurse!$A:$E,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="31">
         <f>SUMIFS($J$3:J20, $D$3:D20, D20, $V$3:V20, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="M20" s="32" t="str">
+      <c r="M20" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N20" s="32">
+      <c r="N20" s="31">
         <f>SUMIFS($M$3:M20, $D$3:D20, D20, $V$3:V20, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="O20" s="31" t="str">
+      <c r="O20" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q20" s="34">
+      <c r="Q20" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G21" s="30">
+      <c r="G21" s="29">
         <f>SUMIFS(F$3:F21, D$3:D21, D21, V$3:V21, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="118">
         <f>IFERROR(VLOOKUP(D21,Kurse!$A:$E,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="31">
         <f>SUMIFS($J$3:J21, $D$3:D21, D21, $V$3:V21, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="M21" s="32" t="str">
+      <c r="M21" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N21" s="32">
+      <c r="N21" s="31">
         <f>SUMIFS($M$3:M21, $D$3:D21, D21, $V$3:V21, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="O21" s="31" t="str">
+      <c r="O21" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <f>SUMIFS(F$3:F22, D$3:D22, D22, V$3:V22, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="118">
         <f>IFERROR(VLOOKUP(D22,Kurse!$A:$E,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="31">
         <f>SUMIFS($J$3:J22, $D$3:D22, D22, $V$3:V22, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="M22" s="32" t="str">
+      <c r="M22" s="31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N22" s="32">
+      <c r="N22" s="31">
         <f>SUMIFS($M$3:M22, $D$3:D22, D22, $V$3:V22, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="O22" s="31" t="str">
+      <c r="O22" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q22" s="34">
+      <c r="Q22" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7015,314 +7050,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097CBCEA-8AF7-9B4B-A5F0-FAD6F1A09893}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="38" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="61" zoomScaleNormal="63" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="AX34" sqref="AX34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" style="50" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="83" t="s">
+      <c r="B1" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="85" t="s">
+      <c r="C1" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="85" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="48">
         <f>SUMIF('Portfolio Overview'!D:D, A2, 'Portfolio Overview'!F:F)</f>
         <v>0.23478599999999999</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="39">
         <f>B2 * VLOOKUP(A2, 'Portfolio Overview'!D:I, 6, FALSE)</f>
-        <v>49.387235099999998</v>
-      </c>
-      <c r="D2" s="54">
+        <v>50.326379099999997</v>
+      </c>
+      <c r="D2" s="51">
         <f>SUMIF('Portfolio Overview'!D:D, A2, 'Portfolio Overview'!J:J)</f>
         <v>50</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="53">
         <f>SUMIF('Portfolio Overview'!D:D, A2, 'Portfolio Overview'!M:M)</f>
-        <v>50.989999999999995</v>
-      </c>
-      <c r="F2" s="53">
-        <f>D2 / SUM(D:D)</f>
-        <v>0.10714438777696825</v>
-      </c>
-      <c r="G2" s="40">
-        <f t="shared" ref="G2:G8" si="0">C2-E2</f>
-        <v>-1.6027648999999968</v>
-      </c>
-      <c r="H2" s="53">
-        <f t="shared" ref="H2:H8" si="1">IF(E2=0, "", (C2 - E2)/E2)</f>
-        <v>-3.1432926063934045E-2</v>
+        <v>50</v>
+      </c>
+      <c r="F2" s="50">
+        <f ca="1">IFERROR(C2/SUM($C$2:$C$7),0)</f>
+        <v>0.2967207790235929</v>
+      </c>
+      <c r="G2" s="39">
+        <f t="shared" ref="G2" si="0">C2-E2</f>
+        <v>0.32637909999999692</v>
+      </c>
+      <c r="H2" s="99">
+        <f t="shared" ref="H2:H7" si="1">IF(E2=0, "", (C2 - E2)/E2)</f>
+        <v>6.5275819999999381E-3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="51">
+      <c r="A3" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="48">
         <f>SUMIF('Portfolio Overview'!D:D, A3, 'Portfolio Overview'!F:F)</f>
-        <v>2.3581189999999999</v>
-      </c>
-      <c r="C3" s="40">
+        <v>0.65416399999999997</v>
+      </c>
+      <c r="C3" s="39">
         <f>B3 * VLOOKUP(A3, 'Portfolio Overview'!D:I, 6, FALSE)</f>
-        <v>28.910538939999999</v>
-      </c>
-      <c r="D3" s="54">
+        <v>30.889624079999997</v>
+      </c>
+      <c r="D3" s="51">
         <f>SUMIF('Portfolio Overview'!D:D, A3, 'Portfolio Overview'!J:J)</f>
         <v>30</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="53">
         <f>SUMIF('Portfolio Overview'!D:D, A3, 'Portfolio Overview'!M:M)</f>
         <v>30</v>
       </c>
-      <c r="F3" s="53">
-        <f t="shared" ref="F3:F7" si="2">D3 / SUM(D:D)</f>
-        <v>6.4286632666180954E-2</v>
-      </c>
-      <c r="G3" s="40">
-        <f t="shared" si="0"/>
-        <v>-1.0894610600000014</v>
-      </c>
-      <c r="H3" s="53">
+      <c r="F3" s="50">
+        <f t="shared" ref="F3:F7" ca="1" si="2">IFERROR(C3/SUM($C$2:$C$7),0)</f>
+        <v>0.18212304331593634</v>
+      </c>
+      <c r="G3" s="39">
+        <f>C3-E3</f>
+        <v>0.88962407999999726</v>
+      </c>
+      <c r="H3" s="99">
         <f t="shared" si="1"/>
-        <v>-3.6315368666666716E-2</v>
+        <v>2.9654135999999907E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="51">
+      <c r="A4" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="48">
         <f>SUMIF('Portfolio Overview'!D:D, A4, 'Portfolio Overview'!F:F)</f>
-        <v>0.65416399999999997</v>
-      </c>
-      <c r="C4" s="40">
+        <v>4.1741489999999999</v>
+      </c>
+      <c r="C4" s="39">
         <f>B4 * VLOOKUP(A4, 'Portfolio Overview'!D:I, 6, FALSE)</f>
-        <v>30.071919079999997</v>
-      </c>
-      <c r="D4" s="54">
+        <v>38.276946330000001</v>
+      </c>
+      <c r="D4" s="51">
         <f>SUMIF('Portfolio Overview'!D:D, A4, 'Portfolio Overview'!J:J)</f>
-        <v>30</v>
-      </c>
-      <c r="E4" s="56">
+        <v>38.33</v>
+      </c>
+      <c r="E4" s="53">
         <f>SUMIF('Portfolio Overview'!D:D, A4, 'Portfolio Overview'!M:M)</f>
-        <v>30</v>
-      </c>
-      <c r="F4" s="53">
-        <f>D4 / SUM(D:D)</f>
-        <v>6.4286632666180954E-2</v>
-      </c>
-      <c r="G4" s="40">
-        <f t="shared" si="0"/>
-        <v>7.1919079999997138E-2</v>
-      </c>
-      <c r="H4" s="53">
+        <v>38.33</v>
+      </c>
+      <c r="F4" s="50">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22567817388797309</v>
+      </c>
+      <c r="G4" s="39">
+        <f>C4-E4</f>
+        <v>-5.3053669999997055E-2</v>
+      </c>
+      <c r="H4" s="99">
         <f t="shared" si="1"/>
-        <v>2.3973026666665714E-3</v>
+        <v>-1.3841291416644159E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="51">
+      <c r="A5" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="48">
         <f>SUMIF('Portfolio Overview'!D:D, A5, 'Portfolio Overview'!F:F)</f>
-        <v>4.1741489999999999</v>
-      </c>
-      <c r="C5" s="40">
+        <v>0.88920500000000002</v>
+      </c>
+      <c r="C5" s="39">
         <f>B5 * VLOOKUP(A5, 'Portfolio Overview'!D:I, 6, FALSE)</f>
-        <v>37.734306959999998</v>
-      </c>
-      <c r="D5" s="54">
+        <v>50.115593799999999</v>
+      </c>
+      <c r="D5" s="51">
         <f>SUMIF('Portfolio Overview'!D:D, A5, 'Portfolio Overview'!J:J)</f>
-        <v>38.33</v>
-      </c>
-      <c r="E5" s="56">
+        <v>50</v>
+      </c>
+      <c r="E5" s="53">
         <f>SUMIF('Portfolio Overview'!D:D, A5, 'Portfolio Overview'!M:M)</f>
-        <v>38.33</v>
-      </c>
-      <c r="F5" s="53">
-        <f t="shared" si="2"/>
-        <v>8.2136887669823855E-2</v>
-      </c>
-      <c r="G5" s="40">
-        <f t="shared" si="0"/>
-        <v>-0.59569304000000045</v>
-      </c>
-      <c r="H5" s="53">
+        <v>50</v>
+      </c>
+      <c r="F5" s="50">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.29547800377249755</v>
+      </c>
+      <c r="G5" s="39">
+        <f>C5-E5</f>
+        <v>0.11559379999999919</v>
+      </c>
+      <c r="H5" s="99">
         <f t="shared" si="1"/>
-        <v>-1.554116984085574E-2</v>
+        <v>2.311875999999984E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="51">
-        <f>SUMIF('Portfolio Overview'!D:D, A6, 'Portfolio Overview'!F:F)</f>
-        <v>0.88920500000000002</v>
-      </c>
-      <c r="C6" s="40">
-        <f>B6 * VLOOKUP(A6, 'Portfolio Overview'!D:I, 6, FALSE)</f>
-        <v>51.004798800000003</v>
-      </c>
-      <c r="D6" s="54">
-        <f>SUMIF('Portfolio Overview'!D:D, A6, 'Portfolio Overview'!J:J)</f>
-        <v>50</v>
-      </c>
-      <c r="E6" s="56">
-        <f>SUMIF('Portfolio Overview'!D:D, A6, 'Portfolio Overview'!M:M)</f>
-        <v>50</v>
-      </c>
-      <c r="F6" s="53">
-        <f>D6 / SUM(D:D)</f>
-        <v>0.10714438777696825</v>
-      </c>
-      <c r="G6" s="40">
-        <f t="shared" si="0"/>
-        <v>1.0047988000000032</v>
-      </c>
-      <c r="H6" s="53">
+      <c r="A6" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="95">
+        <f ca="1">SUM(C2:C7)</f>
+        <v>169.60854331000002</v>
+      </c>
+      <c r="D6" s="96">
+        <f ca="1">SUM(D2:D7)</f>
+        <v>168.32999999999998</v>
+      </c>
+      <c r="E6" s="96">
+        <f ca="1">SUM(E2:E7)</f>
+        <v>168.32999999999998</v>
+      </c>
+      <c r="F6" s="97"/>
+      <c r="G6" s="95">
+        <f ca="1">SUM(G2:G7)</f>
+        <v>1.2785433099999963</v>
+      </c>
+      <c r="H6" s="100">
+        <f ca="1">(C6-E6)/E6</f>
+        <v>7.5954571971724111E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
+      <c r="E7" s="53"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="99" t="str">
         <f t="shared" si="1"/>
-        <v>2.0095976000000064E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="51">
-        <f>SUMIF('Portfolio Overview'!D:D, A7, 'Portfolio Overview'!F:F)</f>
-        <v>3.8137999999999998E-2</v>
-      </c>
-      <c r="C7" s="40">
-        <f>B7 * VLOOKUP(A7, 'Portfolio Overview'!D:I, 6, FALSE)</f>
-        <v>24.484596</v>
-      </c>
-      <c r="D7" s="54">
-        <f>SUMIF('Portfolio Overview'!D:D, A7, 'Portfolio Overview'!J:J)</f>
-        <v>25</v>
-      </c>
-      <c r="E7" s="56">
-        <f>SUMIF('Portfolio Overview'!D:D, A7, 'Portfolio Overview'!M:M)</f>
-        <v>29</v>
-      </c>
-      <c r="F7" s="53">
-        <f t="shared" si="2"/>
-        <v>5.3572193888484124E-2</v>
-      </c>
-      <c r="G7" s="40">
-        <f t="shared" si="0"/>
-        <v>-4.5154040000000002</v>
-      </c>
-      <c r="H7" s="53">
-        <f t="shared" si="1"/>
-        <v>-0.15570358620689656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="51">
-        <f>SUMIF('Portfolio Overview'!D:D, A8, 'Portfolio Overview'!F:F)</f>
-        <v>5.8120000000000003E-3</v>
-      </c>
-      <c r="C8" s="40">
-        <f>B8 * VLOOKUP(A8, 'Portfolio Overview'!D:I, 6, FALSE)</f>
-        <v>10.313394000000001</v>
-      </c>
-      <c r="D8" s="54">
-        <f>SUMIF('Portfolio Overview'!D:D, A8, 'Portfolio Overview'!J:J)</f>
-        <v>10</v>
-      </c>
-      <c r="E8" s="56">
-        <f>SUMIF('Portfolio Overview'!D:D, A8, 'Portfolio Overview'!M:M)</f>
-        <v>10</v>
-      </c>
-      <c r="F8" s="53">
-        <f>D8 / SUM(D:D)</f>
-        <v>2.142887755539365E-2</v>
-      </c>
-      <c r="G8" s="40">
-        <f t="shared" si="0"/>
-        <v>0.31339400000000062</v>
-      </c>
-      <c r="H8" s="53">
-        <f t="shared" si="1"/>
-        <v>3.1339400000000059E-2</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="77">
-        <f>SUM(C2:C8)</f>
-        <v>231.90678887999999</v>
-      </c>
-      <c r="D9" s="78">
-        <f>SUM(D2:D8)</f>
-        <v>233.32999999999998</v>
-      </c>
-      <c r="E9" s="78">
-        <f>SUM(E2:E8)</f>
-        <v>238.32</v>
-      </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="77">
-        <f>SUM(G2:G8)</f>
-        <v>-6.4132111199999979</v>
-      </c>
-      <c r="H9" s="79">
-        <f>(C9-E9)/E9</f>
-        <v>-2.6910083585095668E-2</v>
-      </c>
+      <c r="A9" s="88"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="92"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="51"/>
-      <c r="E19" s="56"/>
-      <c r="G19" s="40"/>
+      <c r="B19" s="48"/>
+      <c r="E19" s="53"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7332,213 +7290,212 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5686DF9E-AB4F-9142-A454-1BC94A13C90C}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="76" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
+    <sheetView topLeftCell="A4" zoomScale="93" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="85" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="E2" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="F2" s="77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="72">
+        <v>50</v>
+      </c>
+      <c r="E3" s="81">
+        <f>D3/$D$9</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="72">
+        <v>50</v>
+      </c>
+      <c r="E4" s="81">
+        <f t="shared" ref="E4:E8" si="0">D4/$D$9</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="72">
+        <v>80</v>
+      </c>
+      <c r="E5" s="81">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="72">
+        <v>20</v>
+      </c>
+      <c r="E6" s="81">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F6" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="71" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="70" t="s">
+      <c r="B7" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="72">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="64">
-        <v>50</v>
-      </c>
-      <c r="E3" s="73">
-        <v>0.21279999999999999</v>
-      </c>
-      <c r="F3" s="63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="64">
-        <v>50</v>
-      </c>
-      <c r="E4" s="73">
-        <v>0.21279999999999999</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="64">
-        <v>40</v>
-      </c>
-      <c r="E5" s="73">
-        <v>0.17019999999999999</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="63" t="s">
+      <c r="E7" s="81">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="64">
-        <v>40</v>
-      </c>
-      <c r="E6" s="73">
-        <v>0.17019999999999999</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="64">
+      <c r="C8" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="72">
         <v>20</v>
       </c>
-      <c r="E7" s="73">
-        <v>8.5099999999999995E-2</v>
-      </c>
-      <c r="F7" s="63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="63" t="s">
+      <c r="E8" s="81">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F8" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="64">
-        <v>20</v>
-      </c>
-      <c r="E8" s="73">
-        <v>8.5099999999999995E-2</v>
-      </c>
-      <c r="F8" s="63" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="64">
-        <v>15</v>
-      </c>
-      <c r="E9" s="73">
-        <v>6.3799999999999996E-2</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>61</v>
-      </c>
+      <c r="A9" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75">
+        <f>SUM(D3:D8)</f>
+        <v>240</v>
+      </c>
+      <c r="E9" s="82"/>
+      <c r="F9" s="74"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="63"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69">
-        <v>235</v>
-      </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="68"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="70"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="84"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
@@ -7548,259 +7505,2206 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22AD91D-E416-4E46-A392-C6F8A66D63DA}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D38574-E652-B643-981B-7688C195D285}">
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView zoomScale="190" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="44"/>
-    <col min="7" max="16384" width="10.83203125" style="38"/>
+    <col min="1" max="1" width="17.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="37"/>
+    <col min="14" max="14" width="22.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="55.1640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="109" style="37" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="26">
+        <v>45805</v>
+      </c>
+      <c r="B2" s="27">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="101">
+        <v>2</v>
+      </c>
+      <c r="G2" s="102">
+        <f>SUMIFS(F$2:F2, D$2:D2, D2, V$2:V2, "Yes")</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="31">
+        <v>8.7360000000000007</v>
+      </c>
+      <c r="I2" s="31">
+        <f>IFERROR(VLOOKUP(D2,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>7.91</v>
+      </c>
+      <c r="J2" s="31">
+        <v>20</v>
+      </c>
+      <c r="K2" s="31">
+        <f>SUMIFS($J2:J$3, $D2:D$3, D2, $V2:V$3, "Yes")</f>
+        <v>20</v>
+      </c>
+      <c r="L2" s="31">
+        <v>1</v>
+      </c>
+      <c r="M2" s="31">
+        <f>IF(V2="Yes",J2+L2,"")</f>
+        <v>21</v>
+      </c>
+      <c r="N2" s="31">
+        <f>SUMIFS($M2:M$3, $D2:D$3, D2, $V2:V$3, "Yes")</f>
+        <v>21</v>
+      </c>
+      <c r="O2" s="30">
+        <f>IF(V2="Yes",F2*I2,"")</f>
+        <v>15.82</v>
+      </c>
+      <c r="P2" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="33">
+        <f t="shared" ref="Q2:Q30" si="0">IFERROR(O2*P2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="26">
+        <v>45805</v>
+      </c>
+      <c r="B3" s="27">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="29">
+        <v>1.82</v>
+      </c>
+      <c r="G3" s="102">
+        <f>SUMIFS(F$2:F3, D$2:D3, D3, V$2:V3, "Yes")</f>
+        <v>1.82</v>
+      </c>
+      <c r="H3" s="31">
+        <v>5.3739999999999997</v>
+      </c>
+      <c r="I3" s="31">
+        <f>IFERROR(VLOOKUP(D3,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>5.27</v>
+      </c>
+      <c r="J3" s="31">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="K3" s="31">
+        <f>SUMIFS($J3:J$3, $D3:D$3, D3, $V3:V$3, "Yes")</f>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="L3" s="31">
+        <v>1</v>
+      </c>
+      <c r="M3" s="31">
+        <f t="shared" ref="M3:M30" si="1">IF(V3="Yes",J3+L3,"")</f>
+        <v>10.78</v>
+      </c>
+      <c r="N3" s="31">
+        <f>SUMIFS($M3:M$3, $D3:D$3, D3, $V3:V$3, "Yes")</f>
+        <v>10.78</v>
+      </c>
+      <c r="O3" s="30">
+        <f t="shared" ref="O3:O30" si="2">IF(V3="Yes",F3*I3,"")</f>
+        <v>9.5914000000000001</v>
+      </c>
+      <c r="P3" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G4" s="102">
+        <f>SUMIFS(F$2:F4, D$2:D4, D4, V$2:V4, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="31">
+        <f>IFERROR(VLOOKUP(D4,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="31">
+        <f>SUMIFS($J$3:J4, $D$3:D4, D4, $V$3:V4, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N4" s="31">
+        <f>SUMIFS($M$3:M4, $D$3:D4, D4, $V$3:V4, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q4" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G5" s="102">
+        <f>SUMIFS(F$2:F5, D$2:D5, D5, V$2:V5, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="31">
+        <f>IFERROR(VLOOKUP(D5,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="31">
+        <f>SUMIFS($J$3:J5, $D$3:D5, D5, $V$3:V5, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N5" s="31">
+        <f>SUMIFS($M$3:M5, $D$3:D5, D5, $V$3:V5, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q5" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G6" s="102">
+        <f>SUMIFS(F$2:F6, D$2:D6, D6, V$2:V6, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="31">
+        <f>IFERROR(VLOOKUP(D6,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="31">
+        <f>SUMIFS($J$3:J6, $D$3:D6, D6, $V$3:V6, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="31" t="str">
+        <f>IF(V6="Yes",J6+L6,"")</f>
+        <v/>
+      </c>
+      <c r="N6" s="31">
+        <f>SUMIFS($M$3:M6, $D$3:D6, D6, $V$3:V6, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="30" t="str">
+        <f>IF(V6="Yes",F6*I6,"")</f>
+        <v/>
+      </c>
+      <c r="Q6" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G7" s="102">
+        <f>SUMIFS(F$2:F7, D$2:D7, D7, V$2:V7, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="31">
+        <f>IFERROR(VLOOKUP(D7,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="31">
+        <f>SUMIFS($J$3:J7, $D$3:D7, D7, $V$3:V7, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N7" s="31">
+        <f>SUMIFS($M$3:M7, $D$3:D7, D7, $V$3:V7, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q7" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G8" s="102">
+        <f>SUMIFS(F$2:F8, D$2:D8, D8, V$2:V8, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="31">
+        <f>IFERROR(VLOOKUP(D8,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="31">
+        <f>SUMIFS($J$3:J8, $D$3:D8, D8, $V$3:V8, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N8" s="31">
+        <f>SUMIFS($M$3:M8, $D$3:D8, D8, $V$3:V8, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q8" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G9" s="102">
+        <f>SUMIFS(F$2:F9, D$2:D9, D9, V$2:V9, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="31">
+        <f>IFERROR(VLOOKUP(D9,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="31">
+        <f>SUMIFS($J$3:J9, $D$3:D9, D9, $V$3:V9, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N9" s="31">
+        <f>SUMIFS($M$3:M9, $D$3:D9, D9, $V$3:V9, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q9" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G10" s="102">
+        <f>SUMIFS(F$2:F10, D$2:D10, D10, V$2:V10, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="31">
+        <f>IFERROR(VLOOKUP(D10,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="31">
+        <f>SUMIFS($J$3:J10, $D$3:D10, D10, $V$3:V10, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N10" s="31">
+        <f>SUMIFS($M$3:M10, $D$3:D10, D10, $V$3:V10, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q10" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G11" s="102">
+        <f>SUMIFS(F$2:F11, D$2:D11, D11, V$2:V11, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="31">
+        <f>IFERROR(VLOOKUP(D11,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="31">
+        <f>SUMIFS($J$3:J11, $D$3:D11, D11, $V$3:V11, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N11" s="31">
+        <f>SUMIFS($M$3:M11, $D$3:D11, D11, $V$3:V11, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q11" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G12" s="102">
+        <f>SUMIFS(F$2:F12, D$2:D12, D12, V$2:V12, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="31">
+        <f>IFERROR(VLOOKUP(D12,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="31">
+        <f>SUMIFS($J$3:J12, $D$3:D12, D12, $V$3:V12, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N12" s="31">
+        <f>SUMIFS($M$3:M12, $D$3:D12, D12, $V$3:V12, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q12" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G13" s="102">
+        <f>SUMIFS(F$2:F13, D$2:D13, D13, V$2:V13, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
+        <f>IFERROR(VLOOKUP(D13,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="31">
+        <f>SUMIFS($J$3:J13, $D$3:D13, D13, $V$3:V13, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N13" s="31">
+        <f>SUMIFS($M$3:M13, $D$3:D13, D13, $V$3:V13, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q13" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G14" s="102">
+        <f>SUMIFS(F$2:F14, D$2:D14, D14, V$2:V14, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="31">
+        <f>IFERROR(VLOOKUP(D14,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="31">
+        <f>SUMIFS($J$3:J14, $D$3:D14, D14, $V$3:V14, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N14" s="31">
+        <f>SUMIFS($M$3:M14, $D$3:D14, D14, $V$3:V14, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q14" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G15" s="102">
+        <f>SUMIFS(F$2:F15, D$2:D15, D15, V$2:V15, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="31">
+        <f>IFERROR(VLOOKUP(D15,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="31">
+        <f>SUMIFS($J$3:J15, $D$3:D15, D15, $V$3:V15, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N15" s="31">
+        <f>SUMIFS($M$3:M15, $D$3:D15, D15, $V$3:V15, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q15" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G16" s="102">
+        <f>SUMIFS(F$2:F16, D$2:D16, D16, V$2:V16, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="31">
+        <f>IFERROR(VLOOKUP(D16,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="31">
+        <f>SUMIFS($J$3:J16, $D$3:D16, D16, $V$3:V16, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N16" s="31">
+        <f>SUMIFS($M$3:M16, $D$3:D16, D16, $V$3:V16, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q16" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G17" s="102">
+        <f>SUMIFS(F$2:F17, D$2:D17, D17, V$2:V17, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="31">
+        <f>IFERROR(VLOOKUP(D17,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="31">
+        <f>SUMIFS($J$3:J17, $D$3:D17, D17, $V$3:V17, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N17" s="31">
+        <f>SUMIFS($M$3:M17, $D$3:D17, D17, $V$3:V17, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q17" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G18" s="102">
+        <f>SUMIFS(F$2:F18, D$2:D18, D18, V$2:V18, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="31">
+        <f>IFERROR(VLOOKUP(D18,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="31">
+        <f>SUMIFS($J$3:J18, $D$3:D18, D18, $V$3:V18, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N18" s="31">
+        <f>SUMIFS($M$3:M18, $D$3:D18, D18, $V$3:V18, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q18" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G19" s="102">
+        <f>SUMIFS(F$2:F19, D$2:D19, D19, V$2:V19, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
+        <f>IFERROR(VLOOKUP(D19,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="31">
+        <f>SUMIFS($J$3:J19, $D$3:D19, D19, $V$3:V19, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N19" s="31">
+        <f>SUMIFS($M$3:M19, $D$3:D19, D19, $V$3:V19, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q19" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G20" s="102">
+        <f>SUMIFS(F$2:F20, D$2:D20, D20, V$2:V20, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="31">
+        <f>IFERROR(VLOOKUP(D20,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="31">
+        <f>SUMIFS($J$3:J20, $D$3:D20, D20, $V$3:V20, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N20" s="31">
+        <f>SUMIFS($M$3:M20, $D$3:D20, D20, $V$3:V20, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q20" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G21" s="102">
+        <f>SUMIFS(F$2:F21, D$2:D21, D21, V$2:V21, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="31">
+        <f>IFERROR(VLOOKUP(D21,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="31">
+        <f>SUMIFS($J$3:J21, $D$3:D21, D21, $V$3:V21, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N21" s="31">
+        <f>SUMIFS($M$3:M21, $D$3:D21, D21, $V$3:V21, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q21" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G22" s="102">
+        <f>SUMIFS(F$2:F22, D$2:D22, D22, V$2:V22, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="31">
+        <f>IFERROR(VLOOKUP(D22,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="31">
+        <f>SUMIFS($J$3:J22, $D$3:D22, D22, $V$3:V22, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N22" s="31">
+        <f>SUMIFS($M$3:M22, $D$3:D22, D22, $V$3:V22, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q22" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G23" s="102">
+        <f>SUMIFS(F$2:F23, D$2:D23, D23, V$2:V23, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="31">
+        <f>IFERROR(VLOOKUP(D23,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="31">
+        <f>SUMIFS($J$3:J23, $D$3:D23, D23, $V$3:V23, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N23" s="31">
+        <f>SUMIFS($M$3:M23, $D$3:D23, D23, $V$3:V23, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q23" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G24" s="102">
+        <f>SUMIFS(F$2:F24, D$2:D24, D24, V$2:V24, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="31">
+        <f>IFERROR(VLOOKUP(D24,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="31">
+        <f>SUMIFS($J$3:J24, $D$3:D24, D24, $V$3:V24, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N24" s="31">
+        <f>SUMIFS($M$3:M24, $D$3:D24, D24, $V$3:V24, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q24" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G25" s="102">
+        <f>SUMIFS(F$2:F25, D$2:D25, D25, V$2:V25, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="31">
+        <f>IFERROR(VLOOKUP(D25,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="31">
+        <f>SUMIFS($J$3:J25, $D$3:D25, D25, $V$3:V25, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N25" s="31">
+        <f>SUMIFS($M$3:M25, $D$3:D25, D25, $V$3:V25, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q25" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G26" s="102">
+        <f>SUMIFS(F$2:F26, D$2:D26, D26, V$2:V26, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="31">
+        <f>IFERROR(VLOOKUP(D26,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="31">
+        <f>SUMIFS($J$3:J26, $D$3:D26, D26, $V$3:V26, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N26" s="31">
+        <f>SUMIFS($M$3:M26, $D$3:D26, D26, $V$3:V26, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q26" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G27" s="102">
+        <f>SUMIFS(F$2:F27, D$2:D27, D27, V$2:V27, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="31">
+        <f>IFERROR(VLOOKUP(D27,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="31">
+        <f>SUMIFS($J$3:J27, $D$3:D27, D27, $V$3:V27, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N27" s="31">
+        <f>SUMIFS($M$3:M27, $D$3:D27, D27, $V$3:V27, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q27" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G28" s="102">
+        <f>SUMIFS(F$2:F28, D$2:D28, D28, V$2:V28, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="31">
+        <f>IFERROR(VLOOKUP(D28,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="31">
+        <f>SUMIFS($J$3:J28, $D$3:D28, D28, $V$3:V28, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N28" s="31">
+        <f>SUMIFS($M$3:M28, $D$3:D28, D28, $V$3:V28, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q28" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G29" s="102">
+        <f>SUMIFS(F$2:F29, D$2:D29, D29, V$2:V29, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="31">
+        <f>IFERROR(VLOOKUP(D29,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="31">
+        <f>SUMIFS($J$3:J29, $D$3:D29, D29, $V$3:V29, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N29" s="31">
+        <f>SUMIFS($M$3:M29, $D$3:D29, D29, $V$3:V29, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q29" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G30" s="102">
+        <f>SUMIFS(F$2:F30, D$2:D30, D30, V$2:V30, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="31">
+        <f>IFERROR(VLOOKUP(D30,Kurse!$A:$E,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="31">
+        <f>SUMIFS($J$3:J30, $D$3:D30, D30, $V$3:V30, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N30" s="31">
+        <f>SUMIFS($M$3:M30, $D$3:D30, D30, $V$3:V30, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q30" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R30" xr:uid="{EA1CECE5-F369-524C-8D54-7F0600D5F93A}">
+      <formula1>"Savings Plan,One-Time Purchase,Sell,Rebalancing,Test,Dividend"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20" xr:uid="{00D4B1BF-A76C-B74E-ACF1-E3335E6A1F36}">
+      <formula1>"Scalable Capital,Trade Republic,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U30" xr:uid="{1A64A6C2-9C06-B848-A32A-368DFB0D59F7}">
+      <formula1>"ETF,Cryptocurrency,Commodity,Cash,Other,Equity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3" xr:uid="{A2509FE9-EF52-3944-A93B-1D48A3D314E4}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{D6C7B971-BDB6-534D-BF67-03EFAF7190EC}">
+      <formula1>"Mikroinvestition"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E7B8E8-C50F-3E46-8A03-D00961D7918B}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A2,Mikroinvestition!F:F)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="60">
+        <f>IFERROR(B2*VLOOKUP(A2,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>15.82</v>
+      </c>
+      <c r="D2" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A2, Mikroinvestition!J:J)</f>
+        <v>20</v>
+      </c>
+      <c r="E2" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A2, Mikroinvestition!M:M)</f>
+        <v>21</v>
+      </c>
+      <c r="F2" s="111">
+        <f>IFERROR(C2/SUM($C$2:$C$3),0)</f>
+        <v>0.62255523111674282</v>
+      </c>
+      <c r="G2" s="60">
+        <f>C2-E2</f>
+        <v>-5.18</v>
+      </c>
+      <c r="H2" s="112">
+        <f>IF(E2=0, "", (C2 - E2)/E2)</f>
+        <v>-0.24666666666666665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A3,Mikroinvestition!F:F)</f>
+        <v>1.82</v>
+      </c>
+      <c r="C3" s="60">
+        <f>IFERROR(B3*VLOOKUP(A3,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>9.5914000000000001</v>
+      </c>
+      <c r="D3" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A3, Mikroinvestition!J:J)</f>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="E3" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A3, Mikroinvestition!M:M)</f>
+        <v>10.78</v>
+      </c>
+      <c r="F3" s="111">
+        <f>IFERROR(C3/SUM($C$2:$C$3),0)</f>
+        <v>0.37744476888325712</v>
+      </c>
+      <c r="G3" s="60">
+        <f>C3-E3</f>
+        <v>-1.1885999999999992</v>
+      </c>
+      <c r="H3" s="112">
+        <f>IF(E3=0, "", (C3 - E3)/E3)</f>
+        <v>-0.1102597402597402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A4,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="60">
+        <f>IFERROR(B4*VLOOKUP(A4,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A4, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A4, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A5,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="60">
+        <f>IFERROR(B5*VLOOKUP(A5,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A5, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A5, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A6,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="60">
+        <f>IFERROR(B6*VLOOKUP(A6,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A6, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A6, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A7,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="60">
+        <f>IFERROR(B7*VLOOKUP(A7,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A7, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A7, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A8,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="60">
+        <f>IFERROR(B8*VLOOKUP(A8,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A8, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A8, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A9,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="60">
+        <f>IFERROR(B9*VLOOKUP(A9,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A9, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A9, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A10,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="60">
+        <f>IFERROR(B10*VLOOKUP(A10,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A10, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A10, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A11,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="60">
+        <f>IFERROR(B11*VLOOKUP(A11,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A11, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A11, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A12,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="60">
+        <f>IFERROR(B12*VLOOKUP(A12,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A12, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A12, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A13,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="60">
+        <f>IFERROR(B13*VLOOKUP(A13,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A13, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A13, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A14,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="60">
+        <f>IFERROR(B14*VLOOKUP(A14,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A14, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A14, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A15,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="60">
+        <f>IFERROR(B15*VLOOKUP(A15,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A15, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A15, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A16,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="60">
+        <f>IFERROR(B16*VLOOKUP(A16,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A16, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A16, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A17,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="60">
+        <f>IFERROR(B17*VLOOKUP(A17,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A17, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A17, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A18,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="60">
+        <f>IFERROR(B18*VLOOKUP(A18,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A18, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A18, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A19,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="60">
+        <f>IFERROR(B19*VLOOKUP(A19,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A19, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A19, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A20,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="60">
+        <f>IFERROR(B20*VLOOKUP(A20,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A20, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A20, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A21,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="60">
+        <f>IFERROR(B21*VLOOKUP(A21,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A21, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A21, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A22,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="60">
+        <f>IFERROR(B22*VLOOKUP(A22,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A22, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A22, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A23,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="60">
+        <f>IFERROR(B23*VLOOKUP(A23,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A23, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A23, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A24,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="60">
+        <f>IFERROR(B24*VLOOKUP(A24,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A24, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A24, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A25,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="60">
+        <f>IFERROR(B25*VLOOKUP(A25,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A25, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A25, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A26,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="60">
+        <f>IFERROR(B26*VLOOKUP(A26,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A26, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A26, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A27,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="60">
+        <f>IFERROR(B27*VLOOKUP(A27,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A27, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A27, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A28,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="60">
+        <f>IFERROR(B28*VLOOKUP(A28,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A28, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A28, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A29,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="60">
+        <f>IFERROR(B29*VLOOKUP(A29,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A29, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A29, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A30,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="60">
+        <f>IFERROR(B30*VLOOKUP(A30,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A30, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A30, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A31,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="60">
+        <f>IFERROR(B31*VLOOKUP(A31,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A31, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A31, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A32,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="60">
+        <f>IFERROR(B32*VLOOKUP(A32,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A32, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A32, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A33,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="60">
+        <f>IFERROR(B33*VLOOKUP(A33,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A33, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A33, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A34,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="60">
+        <f>IFERROR(B34*VLOOKUP(A34,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A34, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A34, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="113">
+        <f>SUMIF(Mikroinvestition!D:D,A35,Mikroinvestition!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="60">
+        <f>IFERROR(B35*VLOOKUP(A35,Mikroinvestition!D:I,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="61">
+        <f>SUMIF(Mikroinvestition!D:D, A35, Mikroinvestition!J:J)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="60">
+        <f>SUMIF(Mikroinvestition!D:D, A35, Mikroinvestition!M:M)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22AD91D-E416-4E46-A392-C6F8A66D63DA}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="135" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="49" t="s">
+      <c r="E2" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="F2" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="115">
+        <v>8.86</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="58">
-        <v>8.86</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="60">
+      <c r="D3" s="56">
         <v>45800</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="57">
         <v>0.82499999999999996</v>
       </c>
-      <c r="F3" s="59" t="s">
-        <v>82</v>
+      <c r="F3" s="55" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="58">
+      <c r="A4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="115">
         <v>127.62</v>
       </c>
-      <c r="C4" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="60">
+      <c r="C4" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="56">
         <v>45800</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="57">
         <v>0.83194444444444449</v>
       </c>
-      <c r="F4" s="59" t="s">
-        <v>82</v>
+      <c r="F4" s="55" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="58">
+      <c r="A5" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="115">
         <v>35.29</v>
       </c>
-      <c r="C5" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="60">
+      <c r="C5" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="56">
         <v>45800</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="57">
         <v>0.82986111111111116</v>
       </c>
-      <c r="F5" s="59" t="s">
-        <v>82</v>
+      <c r="F5" s="55" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="115">
         <v>54.61</v>
       </c>
-      <c r="C6" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="60">
+      <c r="C6" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="56">
         <v>45800</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="57">
         <v>0.82916666666666672</v>
       </c>
-      <c r="F6" s="59" t="s">
-        <v>82</v>
+      <c r="F6" s="55" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="115">
+        <v>12.26</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="56">
+        <v>45800</v>
+      </c>
+      <c r="E7" s="57">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="50">
-        <v>210.35</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="41">
-        <v>45800</v>
-      </c>
-      <c r="E7" s="39">
-        <v>0.8256944444444444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="50">
-        <v>12.26</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="41">
-        <v>45800</v>
-      </c>
-      <c r="E8" s="39">
-        <v>0.82638888888888884</v>
+      <c r="B8" s="87">
+        <v>214.35</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="40">
+        <v>45808</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="50">
-        <v>57.36</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="41">
-        <v>45800</v>
-      </c>
-      <c r="E9" s="39">
-        <v>0.82777777777777772</v>
+      <c r="B9" s="87">
+        <v>56.36</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="40">
+        <v>45808</v>
+      </c>
+      <c r="E9" s="38">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="50">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="41">
-        <v>45800</v>
-      </c>
-      <c r="E10" s="39">
-        <v>0.82708333333333328</v>
+      <c r="B10" s="87">
+        <v>9.17</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="40">
+        <v>45808</v>
+      </c>
+      <c r="E10" s="38">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="50">
-        <v>45.97</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="41">
-        <v>45800</v>
-      </c>
-      <c r="E11" s="39">
-        <v>0.82847222222222228</v>
+      <c r="B11" s="87">
+        <v>47.22</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="40">
+        <v>45808</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="50">
-        <v>642</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="41">
-        <v>45800</v>
-      </c>
-      <c r="E12" s="39">
-        <v>0.8305555555555556</v>
+      <c r="A12" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="87">
+        <v>650</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="40">
+        <v>45808</v>
+      </c>
+      <c r="E12" s="38">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="50">
-        <v>1774.5</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="41">
-        <v>45800</v>
-      </c>
-      <c r="E13" s="39">
-        <v>0.83125000000000004</v>
-      </c>
+      <c r="A13" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="87">
+        <v>1882.5</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="40">
+        <v>45808</v>
+      </c>
+      <c r="E13" s="38">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="87">
+        <v>7.91</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="40">
+        <v>45808</v>
+      </c>
+      <c r="E14" s="38">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="87">
+        <v>5.27</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="40">
+        <v>45808</v>
+      </c>
+      <c r="E15" s="86">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="87">
+        <v>7.62</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="40">
+        <v>45808</v>
+      </c>
+      <c r="E16" s="86">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="87">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="40">
+        <v>45808</v>
+      </c>
+      <c r="E17" s="86">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="87">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="40">
+        <v>45808</v>
+      </c>
+      <c r="E18" s="86">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="87">
+        <v>330.9</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="40">
+        <v>45808</v>
+      </c>
+      <c r="E19" s="86">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="87">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="40">
+        <v>45808</v>
+      </c>
+      <c r="E20" s="86">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11 C13" xr:uid="{5612EA97-E6F0-6B43-B6CA-4CB200EAED29}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14 C3:C11" xr:uid="{5612EA97-E6F0-6B43-B6CA-4CB200EAED29}">
       <formula1>"EUR,USD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/01_Investment_Plan_2025_Rebalancing.xlsx
+++ b/01_Investment_Plan_2025_Rebalancing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhoushang/Desktop/Meine Z/Mai 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96EECEE6-57C4-B042-9138-1D97563453AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9A91A-64CD-9E4E-B849-51819DD176FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{016DBADC-76D9-AE44-81C6-6D940A00045E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{016DBADC-76D9-AE44-81C6-6D940A00045E}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio Overview" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -883,18 +883,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1107,46 +1106,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C3CED9"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-9530-8D49-9039-35E6A338C39F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7A7783"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-9530-8D49-9039-35E6A338C39F}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="General" sourceLinked="0"/>
             <c:spPr>
@@ -1193,9 +1152,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$2:$A$7</c:f>
+              <c:f>Summary!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Amundi Nasdaq 100 EUR (Acc)</c:v>
                 </c:pt>
@@ -1208,29 +1167,26 @@
                 <c:pt idx="3">
                   <c:v>iShares Physical Gold ETC</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Overall Total</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$F$2:$F$7</c:f>
+              <c:f>Summary!$F$2:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.2967207790235929</c:v>
+                  <c:v>0.14836038951179645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18212304331593634</c:v>
+                  <c:v>9.1061521657968172E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22567817388797309</c:v>
+                  <c:v>0.11283908694398655</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29547800377249755</c:v>
+                  <c:v>0.14773900188624878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5794,10 +5750,10 @@
         <f>SUMIFS(F$3:F3, D$3:D3, D3, V$3:V3, "Yes")</f>
         <v>9.3785999999999994E-2</v>
       </c>
-      <c r="H3" s="118">
+      <c r="H3" s="31">
         <v>213.25</v>
       </c>
-      <c r="I3" s="118">
+      <c r="I3" s="31">
         <f>IFERROR(VLOOKUP(D3,Kurse!$A:$E,2,FALSE),0)</f>
         <v>214.35</v>
       </c>
@@ -5947,10 +5903,10 @@
         <f>SUMIFS(F$3:F5, D$3:D5, D5, V$3:V5, "Yes")</f>
         <v>3.254149</v>
       </c>
-      <c r="H5" s="118">
+      <c r="H5" s="31">
         <v>9.2189999999999994</v>
       </c>
-      <c r="I5" s="118">
+      <c r="I5" s="31">
         <f>IFERROR(VLOOKUP(D5,Kurse!$A:$E,2,FALSE),0)</f>
         <v>9.17</v>
       </c>
@@ -6022,10 +5978,10 @@
         <f>SUMIFS(F$3:F6, D$3:D6, D6, V$3:V6, "Yes")</f>
         <v>0.88920500000000002</v>
       </c>
-      <c r="H6" s="118">
+      <c r="H6" s="31">
         <v>56.23</v>
       </c>
-      <c r="I6" s="118">
+      <c r="I6" s="31">
         <f>IFERROR(VLOOKUP(D6,Kurse!$A:$E,2,FALSE),0)</f>
         <v>56.36</v>
       </c>
@@ -6097,10 +6053,10 @@
         <f>SUMIFS(F$3:F7, D$3:D7, D7, V$3:V7, "Yes")</f>
         <v>0.65416399999999997</v>
       </c>
-      <c r="H7" s="118">
+      <c r="H7" s="31">
         <v>45.86</v>
       </c>
-      <c r="I7" s="118">
+      <c r="I7" s="31">
         <f>IFERROR(VLOOKUP(D7,Kurse!$A:$E,2,FALSE),0)</f>
         <v>47.22</v>
       </c>
@@ -6641,7 +6597,7 @@
       <c r="H14" s="31">
         <v>213.5</v>
       </c>
-      <c r="I14" s="118">
+      <c r="I14" s="31">
         <f>IFERROR(VLOOKUP(D14,Kurse!$A:$E,2,FALSE),0)</f>
         <v>214.35</v>
       </c>
@@ -6716,7 +6672,7 @@
       <c r="H15" s="31">
         <v>9.17</v>
       </c>
-      <c r="I15" s="118">
+      <c r="I15" s="31">
         <f>IFERROR(VLOOKUP(D15,Kurse!$A:$E,2,FALSE),0)</f>
         <v>9.17</v>
       </c>
@@ -6769,7 +6725,7 @@
       <c r="A16" s="56">
         <v>45805</v>
       </c>
-      <c r="B16" s="119">
+      <c r="B16" s="116">
         <v>0.54027777777777775</v>
       </c>
       <c r="C16" s="55" t="s">
@@ -6781,7 +6737,7 @@
       <c r="E16" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="120">
+      <c r="F16" s="117">
         <v>1.0435E-2</v>
       </c>
       <c r="G16" s="4">
@@ -6817,7 +6773,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P16" s="121">
+      <c r="P16" s="118">
         <v>0</v>
       </c>
       <c r="Q16" s="8">
@@ -6848,7 +6804,7 @@
         <f>SUMIFS(F$3:F17, D$3:D17, D17, V$3:V17, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="I17" s="118">
+      <c r="I17" s="31">
         <f>IFERROR(VLOOKUP(D17,Kurse!$A:$E,2,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -6878,7 +6834,7 @@
         <f>SUMIFS(F$3:F18, D$3:D18, D18, V$3:V18, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="I18" s="118">
+      <c r="I18" s="31">
         <f>IFERROR(VLOOKUP(D18,Kurse!$A:$E,2,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -6908,7 +6864,7 @@
         <f>SUMIFS(F$3:F19, D$3:D19, D19, V$3:V19, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="I19" s="118">
+      <c r="I19" s="31">
         <f>IFERROR(VLOOKUP(D19,Kurse!$A:$E,2,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -6938,7 +6894,7 @@
         <f>SUMIFS(F$3:F20, D$3:D20, D20, V$3:V20, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="I20" s="118">
+      <c r="I20" s="31">
         <f>IFERROR(VLOOKUP(D20,Kurse!$A:$E,2,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -6968,7 +6924,7 @@
         <f>SUMIFS(F$3:F21, D$3:D21, D21, V$3:V21, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="I21" s="118">
+      <c r="I21" s="31">
         <f>IFERROR(VLOOKUP(D21,Kurse!$A:$E,2,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -6998,7 +6954,7 @@
         <f>SUMIFS(F$3:F22, D$3:D22, D22, V$3:V22, "Yes")</f>
         <v>0</v>
       </c>
-      <c r="I22" s="118">
+      <c r="I22" s="31">
         <f>IFERROR(VLOOKUP(D22,Kurse!$A:$E,2,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -7052,9 +7008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097CBCEA-8AF7-9B4B-A5F0-FAD6F1A09893}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="61" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="63" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX34" sqref="AX34"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7116,8 +7072,8 @@
         <v>50</v>
       </c>
       <c r="F2" s="50">
-        <f ca="1">IFERROR(C2/SUM($C$2:$C$7),0)</f>
-        <v>0.2967207790235929</v>
+        <f>IFERROR(C2/SUM($C$2:$C$7),0)</f>
+        <v>0.14836038951179645</v>
       </c>
       <c r="G2" s="39">
         <f t="shared" ref="G2" si="0">C2-E2</f>
@@ -7149,8 +7105,8 @@
         <v>30</v>
       </c>
       <c r="F3" s="50">
-        <f t="shared" ref="F3:F7" ca="1" si="2">IFERROR(C3/SUM($C$2:$C$7),0)</f>
-        <v>0.18212304331593634</v>
+        <f t="shared" ref="F3:F5" si="2">IFERROR(C3/SUM($C$2:$C$7),0)</f>
+        <v>9.1061521657968172E-2</v>
       </c>
       <c r="G3" s="39">
         <f>C3-E3</f>
@@ -7182,8 +7138,8 @@
         <v>38.33</v>
       </c>
       <c r="F4" s="50">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.22567817388797309</v>
+        <f t="shared" si="2"/>
+        <v>0.11283908694398655</v>
       </c>
       <c r="G4" s="39">
         <f>C4-E4</f>
@@ -7215,8 +7171,8 @@
         <v>50</v>
       </c>
       <c r="F5" s="50">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.29547800377249755</v>
+        <f t="shared" si="2"/>
+        <v>0.14773900188624878</v>
       </c>
       <c r="G5" s="39">
         <f>C5-E5</f>
@@ -7233,24 +7189,24 @@
       </c>
       <c r="B6" s="94"/>
       <c r="C6" s="95">
-        <f ca="1">SUM(C2:C7)</f>
+        <f>SUM(C2:C5)</f>
         <v>169.60854331000002</v>
       </c>
       <c r="D6" s="96">
-        <f ca="1">SUM(D2:D7)</f>
+        <f>SUM(D2:D5)</f>
         <v>168.32999999999998</v>
       </c>
       <c r="E6" s="96">
-        <f ca="1">SUM(E2:E7)</f>
+        <f>SUM(E2:E5)</f>
         <v>168.32999999999998</v>
       </c>
       <c r="F6" s="97"/>
       <c r="G6" s="95">
-        <f ca="1">SUM(G2:G7)</f>
+        <f>SUM(G2:G5)</f>
         <v>1.2785433099999963</v>
       </c>
       <c r="H6" s="100">
-        <f ca="1">(C6-E6)/E6</f>
+        <f>(C6-E6)/E6</f>
         <v>7.5954571971724111E-3</v>
       </c>
     </row>
@@ -7307,14 +7263,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="119" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="s">
@@ -9291,7 +9247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22AD91D-E416-4E46-A392-C6F8A66D63DA}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -9307,14 +9263,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">

--- a/01_Investment_Plan_2025_Rebalancing.xlsx
+++ b/01_Investment_Plan_2025_Rebalancing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhoushang/Desktop/Meine Z/Mai 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9A91A-64CD-9E4E-B849-51819DD176FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E72A15-B2D6-9749-832F-6BE4FC9927C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{016DBADC-76D9-AE44-81C6-6D940A00045E}"/>
   </bookViews>
@@ -948,7 +948,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="85000"/>
@@ -961,7 +961,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="2400" b="1">
+              <a:rPr lang="de-DE" sz="2800" b="1">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="85000"/>
@@ -980,8 +980,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43367189417268981"/>
-          <c:y val="3.0325031119826647E-2"/>
+          <c:x val="0.39080333962130404"/>
+          <c:y val="3.5839044072175655E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -997,7 +997,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="85000"/>
@@ -1124,10 +1124,7 @@
                 <a:pPr>
                   <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="85000"/>
-                        <a:lumOff val="15000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1643,14 +1640,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
@@ -1732,16 +1726,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
                   <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="de-DE"/>
@@ -2193,9 +2187,9 @@
                     <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
@@ -2277,16 +2271,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
                   <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="de-DE"/>
@@ -5078,14 +5072,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>33121</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>41191</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>617838</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>68649</xdr:rowOff>
+      <xdr:rowOff>68648</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7008,9 +7002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097CBCEA-8AF7-9B4B-A5F0-FAD6F1A09893}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="63" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="63" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AR59" sqref="AR59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/01_Investment_Plan_2025_Rebalancing.xlsx
+++ b/01_Investment_Plan_2025_Rebalancing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhoushang/Desktop/Meine Z/Mai 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E72A15-B2D6-9749-832F-6BE4FC9927C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B2912E-5F48-B040-AECC-298F39CCD570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="1" xr2:uid="{016DBADC-76D9-AE44-81C6-6D940A00045E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{016DBADC-76D9-AE44-81C6-6D940A00045E}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio Overview" sheetId="1" r:id="rId1"/>
@@ -7002,7 +7002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097CBCEA-8AF7-9B4B-A5F0-FAD6F1A09893}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="63" workbookViewId="0">
+    <sheetView zoomScaleNormal="63" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AR59" sqref="AR59"/>
     </sheetView>
@@ -7242,8 +7242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5686DF9E-AB4F-9142-A454-1BC94A13C90C}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="93" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7378,7 +7378,7 @@
         <v>58</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D7" s="72">
         <v>20</v>
@@ -7399,7 +7399,7 @@
         <v>47</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D8" s="72">
         <v>20</v>
